--- a/data/xlsx/03152019.xlsx
+++ b/data/xlsx/03152019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/s19-web-dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CE61D4-DC7B-1D4D-B40E-078FAFCD3C86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F04DA-9938-0E4C-80AE-F435E50E7876}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,6 +371,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -412,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +757,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
